--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-19T15:05:14+00:00</t>
+    <t>2023-05-22T15:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-22T15:13:14+00:00</t>
+    <t>2023-05-25T14:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T14:53:20+00:00</t>
+    <t>2023-05-25T15:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T15:21:54+00:00</t>
+    <t>2023-05-25T16:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T16:53:44+00:00</t>
+    <t>2023-05-26T07:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T07:32:07+00:00</t>
+    <t>2023-05-26T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T07:55:08+00:00</t>
+    <t>2023-05-30T07:43:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T07:43:31+00:00</t>
+    <t>2023-05-30T07:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T07:52:10+00:00</t>
+    <t>2023-05-30T10:55:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T10:55:03+00:00</t>
+    <t>2023-05-30T13:48:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-lincaorder-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T13:48:33+00:00</t>
+    <t>2023-05-31T12:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
